--- a/Tabela_Spice.xlsx
+++ b/Tabela_Spice.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\PYTHON - FREELANCER\Calculadora de Frete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldavid\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E8C02-13B8-44F1-9908-F9EB335D3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-30" windowWidth="20640" windowHeight="11160" xr2:uid="{1AA41F18-6F6D-4047-8646-EFBB06D371BC}"/>
+    <workbookView xWindow="-20520" yWindow="-30" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -228,11 +227,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,34 +649,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6275664E-ECEB-4472-AD88-33C67CADDCF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="3"/>
+    <col min="2" max="2" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="3"/>
+    <col min="5" max="5" width="24.125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="15" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -771,7 +770,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -818,7 +817,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -865,7 +864,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -912,7 +911,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -932,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="6">
         <v>1092.0836607531553</v>
@@ -959,7 +958,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -979,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="6">
         <v>1255.2739105883418</v>
@@ -1006,7 +1005,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="6">
         <v>948.98</v>
@@ -1899,7 +1898,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
